--- a/stats_Dominique.xlsx
+++ b/stats_Dominique.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\PROJET_RECOLTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025-Stage-ZAEU-RECOLTE\XLSX\STATS_RECOLTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22830" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -184,8 +184,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -283,9 +283,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -297,16 +297,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers 2" xfId="1"/>
@@ -588,21 +594,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -621,14 +627,20 @@
       <c r="F1" s="9">
         <v>2024</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="11">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="11">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -647,15 +659,17 @@
       <c r="F2" s="7">
         <v>2219</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2">
         <f>SUM(D2:F2)</f>
         <v>9134</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -674,15 +688,17 @@
       <c r="F3" s="7">
         <v>10000</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H47" si="0">SUM(D3:F3)</f>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J47" si="0">SUM(D3:F3)</f>
         <v>25950</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -701,15 +717,17 @@
       <c r="F4" s="7">
         <v>7077</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>15112</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -728,15 +746,17 @@
       <c r="F5" s="2">
         <v>5784</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>10199</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -755,15 +775,17 @@
       <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -782,15 +804,17 @@
       <c r="F7" s="7">
         <v>1300</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>3010</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -809,15 +833,17 @@
       <c r="F8" s="7">
         <v>200</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -836,15 +862,17 @@
       <c r="F9" s="7">
         <v>318</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>1118</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -863,15 +891,17 @@
       <c r="F10" s="7">
         <v>2147</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>2969</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -890,15 +920,17 @@
       <c r="F11" s="7">
         <v>1148</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -917,15 +949,17 @@
       <c r="F12" s="7">
         <v>2360</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>2360</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -944,15 +978,17 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -971,15 +1007,17 @@
       <c r="F14" s="7">
         <v>8859</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>13784</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -998,15 +1036,17 @@
       <c r="F15" s="7">
         <v>4547</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>27093</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1025,15 +1065,17 @@
       <c r="F16" s="7">
         <v>40301</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>91831</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1052,15 +1094,17 @@
       <c r="F17" s="7">
         <v>6165</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>19732</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1079,15 +1123,17 @@
       <c r="F18" s="7">
         <v>200</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1106,15 +1152,17 @@
       <c r="F19" s="7">
         <v>300</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1133,15 +1181,17 @@
       <c r="F20" s="7">
         <v>700</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1160,15 +1210,17 @@
       <c r="F21" s="7">
         <v>11121</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>11121</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -1187,15 +1239,17 @@
       <c r="F22" s="7">
         <v>31150</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>31150</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1214,15 +1268,17 @@
       <c r="F23" s="7">
         <v>975</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>975</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1241,15 +1297,17 @@
       <c r="F24" s="7">
         <v>177</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>1606</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1268,15 +1326,17 @@
       <c r="F25" s="7">
         <v>1813</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>1813</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1295,15 +1355,17 @@
       <c r="F26" s="7">
         <v>3508</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>7938</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1322,15 +1384,17 @@
       <c r="F27" s="7">
         <v>980</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>5190</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1349,15 +1413,17 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1376,15 +1442,17 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>1120</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1403,15 +1471,17 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1430,15 +1500,17 @@
       <c r="F31" s="7">
         <v>1200</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1457,15 +1529,17 @@
       <c r="F32" s="7">
         <v>20</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1484,15 +1558,17 @@
       <c r="F33" s="7">
         <v>0</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1511,15 +1587,17 @@
       <c r="F34" s="7">
         <v>796</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
         <v>796</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1538,15 +1616,17 @@
       <c r="F35" s="8">
         <v>470</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="2">
+      <c r="J35" s="2">
         <f t="shared" si="0"/>
         <v>1160</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1565,15 +1645,17 @@
       <c r="F36" s="8">
         <v>4566</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="2">
+      <c r="J36" s="2">
         <f t="shared" si="0"/>
         <v>7284</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1592,15 +1674,17 @@
       <c r="F37" s="8">
         <v>2628</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="2">
+      <c r="J37" s="2">
         <f t="shared" si="0"/>
         <v>14078</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1619,15 +1703,17 @@
       <c r="F38" s="8">
         <v>0</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1646,15 +1732,17 @@
       <c r="F39" s="8">
         <v>0</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="2">
+      <c r="J39" s="2">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -1673,15 +1761,17 @@
       <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="2">
+      <c r="J40" s="2">
         <f t="shared" si="0"/>
         <v>3102</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1700,15 +1790,17 @@
       <c r="F41" s="8">
         <v>0</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="2">
+      <c r="J41" s="2">
         <f t="shared" si="0"/>
         <v>5630</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -1727,15 +1819,17 @@
       <c r="F42" s="8">
         <v>1893</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="2">
+      <c r="J42" s="2">
         <f t="shared" si="0"/>
         <v>1893</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1754,15 +1848,17 @@
       <c r="F43" s="8">
         <v>87</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="2">
+      <c r="J43" s="2">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1781,15 +1877,17 @@
       <c r="F44" s="8">
         <v>680</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="2">
+      <c r="J44" s="2">
         <f t="shared" si="0"/>
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -1808,15 +1906,17 @@
       <c r="F45" s="8">
         <v>840</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="2">
+      <c r="J45" s="2">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1835,15 +1935,17 @@
       <c r="F46" s="7">
         <v>156</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H46" s="2">
+      <c r="J46" s="2">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -1862,10 +1964,12 @@
       <c r="F47" s="7">
         <v>50</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="2">
+      <c r="J47" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
